--- a/kvision/ksample/mytable/result/008_fcc77.xlsx
+++ b/kvision/ksample/mytable/result/008_fcc77.xlsx
@@ -35,13 +35,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="00FF0000"/>
+      </left>
+      <right style="thick">
+        <color rgb="00FF0000"/>
+      </right>
+      <top style="thick">
+        <color rgb="00FF0000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="00FF0000"/>
+      </bottom>
     </border>
   </borders>
   <cellStyleXfs count="2">
@@ -50,9 +64,12 @@
       <alignment horizontal="general"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="general"/>
     </xf>
   </cellXfs>
@@ -436,220 +453,220 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>省份</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>2021年固定资产 投资增速</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>2022年园定贵产 投资增速目标</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>政府工作报告</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr">
+      <c r="A2" s="2" t="inlineStr">
         <is>
           <t>安徽</t>
         </is>
       </c>
-      <c r="B2" s="1" t="inlineStr">
+      <c r="B2" s="2" t="inlineStr">
         <is>
           <t>9.40%</t>
         </is>
       </c>
-      <c r="C2" s="1" t="inlineStr">
+      <c r="C2" s="2" t="inlineStr">
         <is>
           <t>10%以上</t>
         </is>
       </c>
-      <c r="D2" s="1" t="inlineStr">
+      <c r="D2" s="2" t="inlineStr">
         <is>
           <t>1.以重大项目幸引扩大有效投资，造度超前开展基础设施投资，加大制造业、高新技 术产业投资力度，全年新开工亿元以上重点项目2600个以上、歧工1200个以上，2. 加快新型城镇化建设，加强优质产业空间供给，补齐产业园区城市功能超板，推动产 业集群化、桑群图区化、国区社区化、社区城镇化。实施县域补短板强弱项工程，支 持有条件的县域和域镇接照中小城市标准建设，扩大人口较大县城设置街道改革试点。</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="inlineStr">
+      <c r="A3" s="2" t="inlineStr">
         <is>
           <t>辽宁</t>
         </is>
       </c>
-      <c r="B3" s="1" t="inlineStr">
+      <c r="B3" s="2" t="inlineStr">
         <is>
           <t>2.60%</t>
         </is>
       </c>
-      <c r="C3" s="1" t="inlineStr">
+      <c r="C3" s="2" t="inlineStr">
         <is>
           <t>10%左右</t>
         </is>
       </c>
-      <c r="D3" s="1" t="inlineStr">
+      <c r="D3" s="2" t="inlineStr">
         <is>
           <t>1.加快建设红沿河核电、徐大委核电、沈白高铁，开工建设京哈高速绥中盘锦段改护 建工程、本恒宽高速、凌绥高速及兵器集团精细化工及原料工程项目。2.大力发展县 域经济，建设产业图区。做强做优“一县一业”，努力培养一批农业强县、制造强县、 商贸张县、文旅强县。</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="inlineStr">
+      <c r="A4" s="2" t="inlineStr">
         <is>
           <t>甘肃</t>
         </is>
       </c>
-      <c r="B4" s="1" t="inlineStr">
+      <c r="B4" s="2" t="inlineStr">
         <is>
           <t>11.10%</t>
         </is>
       </c>
-      <c r="C4" s="1" t="inlineStr">
+      <c r="C4" s="2" t="inlineStr">
         <is>
           <t>9%</t>
         </is>
       </c>
-      <c r="D4" s="1" t="inlineStr">
+      <c r="D4" s="2" t="inlineStr">
         <is>
           <t>1.积极扩大有效投资，新端高铁里程184公里，力争新增一级高迹公路700公里，加 快机场建设工作，优化水网体系布局。2.推动以人为核心的新型城镇化，落实共建兰 西城市群“1+3+10”行动计划，统筹大中小城市与小城镇融合发展，加快榆中、数煌 国家级新型城镇化示范县城建设，抓好马禁山“兴边富民行动中心城镇”试点。</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="inlineStr">
+      <c r="A5" s="2" t="inlineStr">
         <is>
           <t>湖南</t>
         </is>
       </c>
-      <c r="B5" s="1" t="inlineStr">
+      <c r="B5" s="2" t="inlineStr">
         <is>
           <t>8%</t>
         </is>
       </c>
-      <c r="C5" s="1" t="inlineStr">
+      <c r="C5" s="2" t="inlineStr">
         <is>
           <t>7.50%</t>
         </is>
       </c>
-      <c r="D5" s="1" t="inlineStr">
+      <c r="D5" s="2" t="inlineStr">
         <is>
           <t>1.全方位推进“十四大交通工程”、“六大水利工程”庭设，力争基础设施投资增长10%： 实现5G同终和千兆光网度盖全部乡镇。2.推进以人为核心的新型城慎化，大力发展 县域经济。</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="2" t="inlineStr">
         <is>
           <t>重庆</t>
         </is>
       </c>
-      <c r="B6" s="1" t="inlineStr">
+      <c r="B6" s="2" t="inlineStr">
         <is>
           <t>6.10%</t>
         </is>
       </c>
-      <c r="C6" s="1" t="inlineStr">
+      <c r="C6" s="2" t="inlineStr">
         <is>
           <t>6%</t>
         </is>
       </c>
-      <c r="D6" s="1" t="inlineStr">
+      <c r="D6" s="2" t="inlineStr">
         <is>
           <t>1.积极扩大有效投资，抓好项目储备，加强政策对接。造度超前开展基础设施投资， 抓好基础设施投资放量，抓好工业投资提质增效，用好产业链招商等方式，引进一批 率引性强、可持续发展的项目。2.持续推进城市提升，提高城市功能品质，深入推进 以人为核心的新型城镇化，加强城市规划、建设、管理，努力建设国际化、嫌色化、 智能化、人文化现代大都市。</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="inlineStr">
+      <c r="A7" s="2" t="inlineStr">
         <is>
           <t>江西</t>
         </is>
       </c>
-      <c r="B7" s="1" t="inlineStr">
+      <c r="B7" s="2" t="inlineStr">
         <is>
           <t>10.80%</t>
         </is>
       </c>
-      <c r="C7" s="1" t="inlineStr">
+      <c r="C7" s="2" t="inlineStr">
         <is>
           <t>8%以上</t>
         </is>
       </c>
-      <c r="D7" s="1" t="inlineStr">
+      <c r="D7" s="2" t="inlineStr">
         <is>
           <t>1.重点推进3453个省大中型项目，年度投资1.1万亿元以上。2.实施域市动能与品质 提升行动，究成县级域市建成区黑奥水体排查并启动整治，32%建成区达到海端域市 建设要求，力争 30%城市（县城）达到省生态因林城市标准。</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
+      <c r="A8" s="2" t="inlineStr">
         <is>
           <t>广西</t>
         </is>
       </c>
-      <c r="B8" s="1" t="inlineStr">
+      <c r="B8" s="2" t="inlineStr">
         <is>
           <t>7.60%</t>
         </is>
       </c>
-      <c r="C8" s="1" t="inlineStr">
+      <c r="C8" s="2" t="inlineStr">
         <is>
           <t>10% 游创建。</t>
         </is>
       </c>
-      <c r="D8" s="1" t="inlineStr">
+      <c r="D8" s="2" t="inlineStr">
         <is>
           <t>1.自治区层西统筹推进重大项目2000项以上：开工一批高速公路项目、里程2000公 里以上，全面实现县县通高速，力争引进10家以上“三类500强”全业，完成投资 8200亿元以上：新建5G基站1.5万个：工业互联网新基建项目30个。2.加快建设格 林世界级旅游域市和广西世界级旅游城市目的地，开晨“百镇千村”生态特色文化旅</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="inlineStr">
+      <c r="A9" s="2" t="inlineStr">
         <is>
           <t>广东</t>
         </is>
       </c>
-      <c r="B9" s="1" t="inlineStr">
+      <c r="B9" s="2" t="inlineStr">
         <is>
           <t>6.30%</t>
         </is>
       </c>
-      <c r="C9" s="1" t="inlineStr">
+      <c r="C9" s="2" t="inlineStr">
         <is>
           <t>8%</t>
         </is>
       </c>
-      <c r="D9" s="1" t="inlineStr">
+      <c r="D9" s="2" t="inlineStr">
         <is>
           <t>1.适度超前开展基础设施投资，加快交运强省建设。推进广港等高铁建设，做好津汕 高铁新通道等项目前期工作：抓好深中等跨江跨海通道和沈海等高速公路改扩建项目， 推进普通图省道和善通公路危旧桥、渡改桥升级改过。加快世界级机场群港口群建设， 加快新型消费基础设施和载体建设。2.积极作为深入推进寻港澳大湾区建设，全力建 设好深圳光行示范区，推动广州加快实现老城市新活力和“四个出新出彩”，高水平推</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
+      <c r="A10" s="2" t="inlineStr">
         <is>
           <t>新验</t>
         </is>
       </c>
-      <c r="B10" s="1" t="inlineStr">
+      <c r="B10" s="2" t="inlineStr">
         <is>
           <t>15%</t>
         </is>
       </c>
-      <c r="C10" s="1" t="inlineStr">
+      <c r="C10" s="2" t="inlineStr">
         <is>
           <t>10%左右 群和区域中心城市</t>
         </is>
       </c>
-      <c r="D10" s="1" t="inlineStr">
+      <c r="D10" s="2" t="inlineStr">
         <is>
           <t>进横琴粤澳深度合作区建设，全西深化前湾课港现代服务业合作区改革开放。 1.加快旅游基础设施建设，适度超前开展基础设施投资。加快推进端合立体交通建设， 加快推进水利建设，加快推进能源建设，加快推进通信建设：有序推进域市更新，加 强城市公共交通、市政设施、地下管网建设。2.加快新型域镇化建设，培育一批域市 促珠城乡融合发長</t>
         </is>

--- a/kvision/ksample/mytable/result/008_fcc77.xlsx
+++ b/kvision/ksample/mytable/result/008_fcc77.xlsx
@@ -35,7 +35,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -57,6 +57,20 @@
         <color rgb="00FF0000"/>
       </bottom>
     </border>
+    <border>
+      <left style="thick">
+        <color rgb="00000000"/>
+      </left>
+      <right style="thick">
+        <color rgb="00000000"/>
+      </right>
+      <top style="thick">
+        <color rgb="00000000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="00000000"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -64,12 +78,15 @@
       <alignment horizontal="general"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="general"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="general"/>
     </xf>
   </cellXfs>
@@ -453,220 +470,220 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="inlineStr">
+      <c r="A1" s="3" t="inlineStr">
         <is>
           <t>省份</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="3" t="inlineStr">
         <is>
           <t>2021年固定资产 投资增速</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="3" t="inlineStr">
         <is>
           <t>2022年园定贵产 投资增速目标</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="D1" s="3" t="inlineStr">
         <is>
           <t>政府工作报告</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="inlineStr">
+      <c r="A2" s="3" t="inlineStr">
         <is>
           <t>安徽</t>
         </is>
       </c>
-      <c r="B2" s="2" t="inlineStr">
+      <c r="B2" s="3" t="inlineStr">
         <is>
           <t>9.40%</t>
         </is>
       </c>
-      <c r="C2" s="2" t="inlineStr">
+      <c r="C2" s="3" t="inlineStr">
         <is>
           <t>10%以上</t>
         </is>
       </c>
-      <c r="D2" s="2" t="inlineStr">
+      <c r="D2" s="3" t="inlineStr">
         <is>
           <t>1.以重大项目幸引扩大有效投资，造度超前开展基础设施投资，加大制造业、高新技 术产业投资力度，全年新开工亿元以上重点项目2600个以上、歧工1200个以上，2. 加快新型城镇化建设，加强优质产业空间供给，补齐产业园区城市功能超板，推动产 业集群化、桑群图区化、国区社区化、社区城镇化。实施县域补短板强弱项工程，支 持有条件的县域和域镇接照中小城市标准建设，扩大人口较大县城设置街道改革试点。</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="inlineStr">
+      <c r="A3" s="3" t="inlineStr">
         <is>
           <t>辽宁</t>
         </is>
       </c>
-      <c r="B3" s="2" t="inlineStr">
+      <c r="B3" s="3" t="inlineStr">
         <is>
           <t>2.60%</t>
         </is>
       </c>
-      <c r="C3" s="2" t="inlineStr">
+      <c r="C3" s="3" t="inlineStr">
         <is>
           <t>10%左右</t>
         </is>
       </c>
-      <c r="D3" s="2" t="inlineStr">
+      <c r="D3" s="3" t="inlineStr">
         <is>
           <t>1.加快建设红沿河核电、徐大委核电、沈白高铁，开工建设京哈高速绥中盘锦段改护 建工程、本恒宽高速、凌绥高速及兵器集团精细化工及原料工程项目。2.大力发展县 域经济，建设产业图区。做强做优“一县一业”，努力培养一批农业强县、制造强县、 商贸张县、文旅强县。</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="inlineStr">
+      <c r="A4" s="3" t="inlineStr">
         <is>
           <t>甘肃</t>
         </is>
       </c>
-      <c r="B4" s="2" t="inlineStr">
+      <c r="B4" s="3" t="inlineStr">
         <is>
           <t>11.10%</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
+      <c r="C4" s="3" t="inlineStr">
         <is>
           <t>9%</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="D4" s="3" t="inlineStr">
         <is>
           <t>1.积极扩大有效投资，新端高铁里程184公里，力争新增一级高迹公路700公里，加 快机场建设工作，优化水网体系布局。2.推动以人为核心的新型城镇化，落实共建兰 西城市群“1+3+10”行动计划，统筹大中小城市与小城镇融合发展，加快榆中、数煌 国家级新型城镇化示范县城建设，抓好马禁山“兴边富民行动中心城镇”试点。</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="inlineStr">
+      <c r="A5" s="3" t="inlineStr">
         <is>
           <t>湖南</t>
         </is>
       </c>
-      <c r="B5" s="2" t="inlineStr">
+      <c r="B5" s="3" t="inlineStr">
         <is>
           <t>8%</t>
         </is>
       </c>
-      <c r="C5" s="2" t="inlineStr">
+      <c r="C5" s="3" t="inlineStr">
         <is>
           <t>7.50%</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
+      <c r="D5" s="3" t="inlineStr">
         <is>
           <t>1.全方位推进“十四大交通工程”、“六大水利工程”庭设，力争基础设施投资增长10%： 实现5G同终和千兆光网度盖全部乡镇。2.推进以人为核心的新型城慎化，大力发展 县域经济。</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="inlineStr">
+      <c r="A6" s="3" t="inlineStr">
         <is>
           <t>重庆</t>
         </is>
       </c>
-      <c r="B6" s="2" t="inlineStr">
+      <c r="B6" s="3" t="inlineStr">
         <is>
           <t>6.10%</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
+      <c r="C6" s="3" t="inlineStr">
         <is>
           <t>6%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
+      <c r="D6" s="3" t="inlineStr">
         <is>
           <t>1.积极扩大有效投资，抓好项目储备，加强政策对接。造度超前开展基础设施投资， 抓好基础设施投资放量，抓好工业投资提质增效，用好产业链招商等方式，引进一批 率引性强、可持续发展的项目。2.持续推进城市提升，提高城市功能品质，深入推进 以人为核心的新型城镇化，加强城市规划、建设、管理，努力建设国际化、嫌色化、 智能化、人文化现代大都市。</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="inlineStr">
+      <c r="A7" s="3" t="inlineStr">
         <is>
           <t>江西</t>
         </is>
       </c>
-      <c r="B7" s="2" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>10.80%</t>
         </is>
       </c>
-      <c r="C7" s="2" t="inlineStr">
+      <c r="C7" s="3" t="inlineStr">
         <is>
           <t>8%以上</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
+      <c r="D7" s="3" t="inlineStr">
         <is>
           <t>1.重点推进3453个省大中型项目，年度投资1.1万亿元以上。2.实施域市动能与品质 提升行动，究成县级域市建成区黑奥水体排查并启动整治，32%建成区达到海端域市 建设要求，力争 30%城市（县城）达到省生态因林城市标准。</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="inlineStr">
+      <c r="A8" s="3" t="inlineStr">
         <is>
           <t>广西</t>
         </is>
       </c>
-      <c r="B8" s="2" t="inlineStr">
+      <c r="B8" s="3" t="inlineStr">
         <is>
           <t>7.60%</t>
         </is>
       </c>
-      <c r="C8" s="2" t="inlineStr">
+      <c r="C8" s="3" t="inlineStr">
         <is>
           <t>10% 游创建。</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
+      <c r="D8" s="3" t="inlineStr">
         <is>
           <t>1.自治区层西统筹推进重大项目2000项以上：开工一批高速公路项目、里程2000公 里以上，全面实现县县通高速，力争引进10家以上“三类500强”全业，完成投资 8200亿元以上：新建5G基站1.5万个：工业互联网新基建项目30个。2.加快建设格 林世界级旅游域市和广西世界级旅游城市目的地，开晨“百镇千村”生态特色文化旅</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="inlineStr">
+      <c r="A9" s="3" t="inlineStr">
         <is>
           <t>广东</t>
         </is>
       </c>
-      <c r="B9" s="2" t="inlineStr">
+      <c r="B9" s="3" t="inlineStr">
         <is>
           <t>6.30%</t>
         </is>
       </c>
-      <c r="C9" s="2" t="inlineStr">
+      <c r="C9" s="3" t="inlineStr">
         <is>
           <t>8%</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
+      <c r="D9" s="3" t="inlineStr">
         <is>
           <t>1.适度超前开展基础设施投资，加快交运强省建设。推进广港等高铁建设，做好津汕 高铁新通道等项目前期工作：抓好深中等跨江跨海通道和沈海等高速公路改扩建项目， 推进普通图省道和善通公路危旧桥、渡改桥升级改过。加快世界级机场群港口群建设， 加快新型消费基础设施和载体建设。2.积极作为深入推进寻港澳大湾区建设，全力建 设好深圳光行示范区，推动广州加快实现老城市新活力和“四个出新出彩”，高水平推</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="inlineStr">
+      <c r="A10" s="3" t="inlineStr">
         <is>
           <t>新验</t>
         </is>
       </c>
-      <c r="B10" s="2" t="inlineStr">
+      <c r="B10" s="3" t="inlineStr">
         <is>
           <t>15%</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
+      <c r="C10" s="3" t="inlineStr">
         <is>
           <t>10%左右 群和区域中心城市</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
+      <c r="D10" s="3" t="inlineStr">
         <is>
           <t>进横琴粤澳深度合作区建设，全西深化前湾课港现代服务业合作区改革开放。 1.加快旅游基础设施建设，适度超前开展基础设施投资。加快推进端合立体交通建设， 加快推进水利建设，加快推进能源建设，加快推进通信建设：有序推进域市更新，加 强城市公共交通、市政设施、地下管网建设。2.加快新型域镇化建设，培育一批域市 促珠城乡融合发長</t>
         </is>

--- a/kvision/ksample/mytable/result/008_fcc77.xlsx
+++ b/kvision/ksample/mytable/result/008_fcc77.xlsx
@@ -35,7 +35,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -71,6 +71,20 @@
         <color rgb="00000000"/>
       </bottom>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="00101010"/>
+      </left>
+      <right style="thin">
+        <color rgb="00101010"/>
+      </right>
+      <top style="thin">
+        <color rgb="00101010"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="00101010"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -78,7 +92,7 @@
       <alignment horizontal="general"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="general"/>
@@ -87,6 +101,9 @@
       <alignment horizontal="general"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="general"/>
     </xf>
   </cellXfs>
@@ -470,220 +487,220 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="3" t="inlineStr">
+      <c r="A1" s="4" t="inlineStr">
         <is>
           <t>省份</t>
         </is>
       </c>
-      <c r="B1" s="3" t="inlineStr">
+      <c r="B1" s="4" t="inlineStr">
         <is>
           <t>2021年固定资产 投资增速</t>
         </is>
       </c>
-      <c r="C1" s="3" t="inlineStr">
+      <c r="C1" s="4" t="inlineStr">
         <is>
           <t>2022年园定贵产 投资增速目标</t>
         </is>
       </c>
-      <c r="D1" s="3" t="inlineStr">
+      <c r="D1" s="4" t="inlineStr">
         <is>
           <t>政府工作报告</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="inlineStr">
+      <c r="A2" s="4" t="inlineStr">
         <is>
           <t>安徽</t>
         </is>
       </c>
-      <c r="B2" s="3" t="inlineStr">
+      <c r="B2" s="4" t="inlineStr">
         <is>
           <t>9.40%</t>
         </is>
       </c>
-      <c r="C2" s="3" t="inlineStr">
+      <c r="C2" s="4" t="inlineStr">
         <is>
           <t>10%以上</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="D2" s="4" t="inlineStr">
         <is>
           <t>1.以重大项目幸引扩大有效投资，造度超前开展基础设施投资，加大制造业、高新技 术产业投资力度，全年新开工亿元以上重点项目2600个以上、歧工1200个以上，2. 加快新型城镇化建设，加强优质产业空间供给，补齐产业园区城市功能超板，推动产 业集群化、桑群图区化、国区社区化、社区城镇化。实施县域补短板强弱项工程，支 持有条件的县域和域镇接照中小城市标准建设，扩大人口较大县城设置街道改革试点。</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="inlineStr">
+      <c r="A3" s="4" t="inlineStr">
         <is>
           <t>辽宁</t>
         </is>
       </c>
-      <c r="B3" s="3" t="inlineStr">
+      <c r="B3" s="4" t="inlineStr">
         <is>
           <t>2.60%</t>
         </is>
       </c>
-      <c r="C3" s="3" t="inlineStr">
+      <c r="C3" s="4" t="inlineStr">
         <is>
           <t>10%左右</t>
         </is>
       </c>
-      <c r="D3" s="3" t="inlineStr">
+      <c r="D3" s="4" t="inlineStr">
         <is>
           <t>1.加快建设红沿河核电、徐大委核电、沈白高铁，开工建设京哈高速绥中盘锦段改护 建工程、本恒宽高速、凌绥高速及兵器集团精细化工及原料工程项目。2.大力发展县 域经济，建设产业图区。做强做优“一县一业”，努力培养一批农业强县、制造强县、 商贸张县、文旅强县。</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="inlineStr">
+      <c r="A4" s="4" t="inlineStr">
         <is>
           <t>甘肃</t>
         </is>
       </c>
-      <c r="B4" s="3" t="inlineStr">
+      <c r="B4" s="4" t="inlineStr">
         <is>
           <t>11.10%</t>
         </is>
       </c>
-      <c r="C4" s="3" t="inlineStr">
+      <c r="C4" s="4" t="inlineStr">
         <is>
           <t>9%</t>
         </is>
       </c>
-      <c r="D4" s="3" t="inlineStr">
+      <c r="D4" s="4" t="inlineStr">
         <is>
           <t>1.积极扩大有效投资，新端高铁里程184公里，力争新增一级高迹公路700公里，加 快机场建设工作，优化水网体系布局。2.推动以人为核心的新型城镇化，落实共建兰 西城市群“1+3+10”行动计划，统筹大中小城市与小城镇融合发展，加快榆中、数煌 国家级新型城镇化示范县城建设，抓好马禁山“兴边富民行动中心城镇”试点。</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="3" t="inlineStr">
+      <c r="A5" s="4" t="inlineStr">
         <is>
           <t>湖南</t>
         </is>
       </c>
-      <c r="B5" s="3" t="inlineStr">
+      <c r="B5" s="4" t="inlineStr">
         <is>
           <t>8%</t>
         </is>
       </c>
-      <c r="C5" s="3" t="inlineStr">
+      <c r="C5" s="4" t="inlineStr">
         <is>
           <t>7.50%</t>
         </is>
       </c>
-      <c r="D5" s="3" t="inlineStr">
+      <c r="D5" s="4" t="inlineStr">
         <is>
           <t>1.全方位推进“十四大交通工程”、“六大水利工程”庭设，力争基础设施投资增长10%： 实现5G同终和千兆光网度盖全部乡镇。2.推进以人为核心的新型城慎化，大力发展 县域经济。</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="3" t="inlineStr">
+      <c r="A6" s="4" t="inlineStr">
         <is>
           <t>重庆</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B6" s="4" t="inlineStr">
         <is>
           <t>6.10%</t>
         </is>
       </c>
-      <c r="C6" s="3" t="inlineStr">
+      <c r="C6" s="4" t="inlineStr">
         <is>
           <t>6%</t>
         </is>
       </c>
-      <c r="D6" s="3" t="inlineStr">
+      <c r="D6" s="4" t="inlineStr">
         <is>
           <t>1.积极扩大有效投资，抓好项目储备，加强政策对接。造度超前开展基础设施投资， 抓好基础设施投资放量，抓好工业投资提质增效，用好产业链招商等方式，引进一批 率引性强、可持续发展的项目。2.持续推进城市提升，提高城市功能品质，深入推进 以人为核心的新型城镇化，加强城市规划、建设、管理，努力建设国际化、嫌色化、 智能化、人文化现代大都市。</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="3" t="inlineStr">
+      <c r="A7" s="4" t="inlineStr">
         <is>
           <t>江西</t>
         </is>
       </c>
-      <c r="B7" s="3" t="inlineStr">
+      <c r="B7" s="4" t="inlineStr">
         <is>
           <t>10.80%</t>
         </is>
       </c>
-      <c r="C7" s="3" t="inlineStr">
+      <c r="C7" s="4" t="inlineStr">
         <is>
           <t>8%以上</t>
         </is>
       </c>
-      <c r="D7" s="3" t="inlineStr">
+      <c r="D7" s="4" t="inlineStr">
         <is>
           <t>1.重点推进3453个省大中型项目，年度投资1.1万亿元以上。2.实施域市动能与品质 提升行动，究成县级域市建成区黑奥水体排查并启动整治，32%建成区达到海端域市 建设要求，力争 30%城市（县城）达到省生态因林城市标准。</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="3" t="inlineStr">
+      <c r="A8" s="4" t="inlineStr">
         <is>
           <t>广西</t>
         </is>
       </c>
-      <c r="B8" s="3" t="inlineStr">
+      <c r="B8" s="4" t="inlineStr">
         <is>
           <t>7.60%</t>
         </is>
       </c>
-      <c r="C8" s="3" t="inlineStr">
+      <c r="C8" s="4" t="inlineStr">
         <is>
           <t>10% 游创建。</t>
         </is>
       </c>
-      <c r="D8" s="3" t="inlineStr">
+      <c r="D8" s="4" t="inlineStr">
         <is>
           <t>1.自治区层西统筹推进重大项目2000项以上：开工一批高速公路项目、里程2000公 里以上，全面实现县县通高速，力争引进10家以上“三类500强”全业，完成投资 8200亿元以上：新建5G基站1.5万个：工业互联网新基建项目30个。2.加快建设格 林世界级旅游域市和广西世界级旅游城市目的地，开晨“百镇千村”生态特色文化旅</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="3" t="inlineStr">
+      <c r="A9" s="4" t="inlineStr">
         <is>
           <t>广东</t>
         </is>
       </c>
-      <c r="B9" s="3" t="inlineStr">
+      <c r="B9" s="4" t="inlineStr">
         <is>
           <t>6.30%</t>
         </is>
       </c>
-      <c r="C9" s="3" t="inlineStr">
+      <c r="C9" s="4" t="inlineStr">
         <is>
           <t>8%</t>
         </is>
       </c>
-      <c r="D9" s="3" t="inlineStr">
+      <c r="D9" s="4" t="inlineStr">
         <is>
           <t>1.适度超前开展基础设施投资，加快交运强省建设。推进广港等高铁建设，做好津汕 高铁新通道等项目前期工作：抓好深中等跨江跨海通道和沈海等高速公路改扩建项目， 推进普通图省道和善通公路危旧桥、渡改桥升级改过。加快世界级机场群港口群建设， 加快新型消费基础设施和载体建设。2.积极作为深入推进寻港澳大湾区建设，全力建 设好深圳光行示范区，推动广州加快实现老城市新活力和“四个出新出彩”，高水平推</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="3" t="inlineStr">
+      <c r="A10" s="4" t="inlineStr">
         <is>
           <t>新验</t>
         </is>
       </c>
-      <c r="B10" s="3" t="inlineStr">
+      <c r="B10" s="4" t="inlineStr">
         <is>
           <t>15%</t>
         </is>
       </c>
-      <c r="C10" s="3" t="inlineStr">
+      <c r="C10" s="4" t="inlineStr">
         <is>
           <t>10%左右 群和区域中心城市</t>
         </is>
       </c>
-      <c r="D10" s="3" t="inlineStr">
+      <c r="D10" s="4" t="inlineStr">
         <is>
           <t>进横琴粤澳深度合作区建设，全西深化前湾课港现代服务业合作区改革开放。 1.加快旅游基础设施建设，适度超前开展基础设施投资。加快推进端合立体交通建设， 加快推进水利建设，加快推进能源建设，加快推进通信建设：有序推进域市更新，加 强城市公共交通、市政设施、地下管网建设。2.加快新型域镇化建设，培育一批域市 促珠城乡融合发長</t>
         </is>
